--- a/Marketing/purdue.roomme.xlsx
+++ b/Marketing/purdue.roomme.xlsx
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">

--- a/Marketing/purdue.roomme.xlsx
+++ b/Marketing/purdue.roomme.xlsx
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">

--- a/Marketing/purdue.roomme.xlsx
+++ b/Marketing/purdue.roomme.xlsx
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B518" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="B522" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="B523" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="B524" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="B525" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="B526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="B527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B529" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="B530" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="B534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B535" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="B536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="B537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B540" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="B546" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="B550" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="B551" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="B552" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="B556" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="B562" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B563" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="B565" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="B566" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="B567" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="B569" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="B572" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="B574" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="B575" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="B576" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B577" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="B578" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B579" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="B580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="B583" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="B584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B585" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="B589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="B590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="B592" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="B597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B598" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -6422,7 +6422,7 @@
         </is>
       </c>
       <c r="B599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">

--- a/Marketing/purdue.roomme.xlsx
+++ b/Marketing/purdue.roomme.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">

--- a/Marketing/purdue.roomme.xlsx
+++ b/Marketing/purdue.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B399"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tiafranklin_</t>
+          <t>sritha.chili</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mcmahon7963</t>
+          <t>pahwansh</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ava_dioli</t>
+          <t>srt.slime422</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>amaya.t_</t>
+          <t>makennawatson14</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ken.ng68</t>
+          <t>owenskoglund</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>brookelynncoburn</t>
+          <t>noahdreibelbeis</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>maddie.argento</t>
+          <t>kosherbigmac</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>christianguess3</t>
+          <t>maluiscool21</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lucaslouiso11</t>
+          <t>triciamckinney1094</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>skymofle21</t>
+          <t>nancy.s.studer</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ismp_purdue</t>
+          <t>vanamali_dhurvaas</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hope.plassard</t>
+          <t>sanjana.tatavarthi</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>v.eshbaugh</t>
+          <t>gaby_ilieva</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kaylie.redd</t>
+          <t>spencer.troise</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>taylorkk8</t>
+          <t>_shivam_rastogi_</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>alex.thews</t>
+          <t>johnchiang1</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>stringsandshots</t>
+          <t>pranjal_bahri</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>kentgerads</t>
+          <t>oepwozz</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>emmad.20237</t>
+          <t>s_mergen_</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>_aggie_mun</t>
+          <t>eminivan3</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>conner_mccuistion</t>
+          <t>simone_lug</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>anna_hart13</t>
+          <t>_katelynshah_</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>arianaz2291</t>
+          <t>johnny_cerruti</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>zachgaerte</t>
+          <t>al.majid21</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nagnik24</t>
+          <t>jordankoszyk</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>alo.moyaa</t>
+          <t>_zachalvin_</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lucy.stolte.14</t>
+          <t>conrad.soares</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ssshaw</t>
+          <t>kamdendodson</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>jongin991</t>
+          <t>y.kheni5</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>k_senthil5733</t>
+          <t>kaleb.lowkey.wildin</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lena_trautmann4</t>
+          <t>taewoo_k_</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>lauren22605</t>
+          <t>daniel.huck</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>miraxmochi</t>
+          <t>bostynleffler</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>deschooner</t>
+          <t>ava.reedd</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>robin_flys_away</t>
+          <t>dusmatt30</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>origsophia</t>
+          <t>jackruthh</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>madison_3.141592</t>
+          <t>neely.langfeldt</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>borntobemolly</t>
+          <t>hayley.bernhoft</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>_evelynreynolds</t>
+          <t>alexaremley1</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hiimcarlod</t>
+          <t>bellamrossi</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ellington.mitchell</t>
+          <t>taniyahnaomi_</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ldm.iii</t>
+          <t>iyengarsaket</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>nothackedjude</t>
+          <t>chaerin.parkk</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>peter_losavio_</t>
+          <t>pennygon2.0</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lil_danny_d</t>
+          <t>becky.allred.3478</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_revantmendiratta</t>
+          <t>ethang4rc1a</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kaylie_zooko</t>
+          <t>david_b.64</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>dr.shabanasayyad</t>
+          <t>keb100572</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zach_tuza108</t>
+          <t>ravv21_</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sanjanalm</t>
+          <t>devon_r360</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ayla.lathrop</t>
+          <t>anisha.goya1</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ava1my</t>
+          <t>tim_yeungg</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>simonejohnsonnnn</t>
+          <t>ryan.macdonalddd</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>jaz_izabella</t>
+          <t>shreya.k231</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>devon_r360</t>
+          <t>hkrisko5</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>marlowe.hannah</t>
+          <t>cotyfournier</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>jsul_17</t>
+          <t>miahess9</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>brady.eggleston</t>
+          <t>nayryin</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>beth_thomas3</t>
+          <t>_albert.he_</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>entsehsieh</t>
+          <t>__ashleytownsend</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jasonwang41</t>
+          <t>ryanhancock77</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cam9475</t>
+          <t>jeramiah_arona</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>beccaafinkelll</t>
+          <t>no_oranges_nearby</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>hunteraddatz</t>
+          <t>frankie___davis</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ry.higgins28</t>
+          <t>hermioniagladkova7513151</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>gabe_e_r</t>
+          <t>apat_33</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>varun104g</t>
+          <t>wickrman_</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>vanessagomezmc</t>
+          <t>ruth.h14</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>maza_nb</t>
+          <t>animan34__4</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dagan.johnson</t>
+          <t>ellasoendker</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>_adameberhart</t>
+          <t>mikayla_haak</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rwalka_05</t>
+          <t>rudra1427</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>aadi.rave</t>
+          <t>addiekb_</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>tori_creviston</t>
+          <t>daniel.park24</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>meganlarkey</t>
+          <t>jonathanmills8123</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>zjweinreb</t>
+          <t>maribelle2sons</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sunny_padileti</t>
+          <t>liza.almkh</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>brahm_deconing</t>
+          <t>ad4m_ah</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>katepalczynski</t>
+          <t>ayushsharma23_</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>thomtheceo</t>
+          <t>rheas.27</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>evan_kriech72</t>
+          <t>d.vidkim</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lucianaelenaalbornoz</t>
+          <t>bucklebuney</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>koppulaspoorthi</t>
+          <t>jackieszklar</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>sam_easterbrook05</t>
+          <t>aravkolli</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>awes0meguy22</t>
+          <t>chrisjun74</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dylan.huamani</t>
+          <t>connor_h00ch</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>nathan_j_0606</t>
+          <t>kimdierking</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>kendall.williams3</t>
+          <t>nandinisachdeva_</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1ellichristiansen</t>
+          <t>makstmartin7374</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>wwwzwbzlmr</t>
+          <t>purdue_pkt</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>miachiz</t>
+          <t>vanessagomezmc</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>purdueusb</t>
+          <t>diyavish_5</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>daviespartyof5</t>
+          <t>saumya_335</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>codyjackson_2020</t>
+          <t>_nirmie_</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>hannaaleuck</t>
+          <t>ava_dioli</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>alfonso.mac</t>
+          <t>itznotcalvinn</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>keshav__narayanan</t>
+          <t>hudsonhile</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ryandurm_</t>
+          <t>tristandarby2023</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rileyaslin_</t>
+          <t>ethanjp1228</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>timothysteele_</t>
+          <t>jonritenour</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>dillonwrighttt</t>
+          <t>s.tandon___</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>victo.rr.eyes</t>
+          <t>dep135_</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ryan.odonnell24</t>
+          <t>charupahwa03</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>soumilverma_</t>
+          <t>freshfrosh_</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>saumyapatel9979</t>
+          <t>kapiln21</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>wendyec2</t>
+          <t>macy.brown70</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>madison.mem</t>
+          <t>m_sidhu32</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>rurounijalen</t>
+          <t>sarah_harej</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>anette__guadalupe</t>
+          <t>zzst487</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>giselle.jreisat7</t>
+          <t>andrewm3373</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>elysiamarlena</t>
+          <t>hjunn_04</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>marissamarra</t>
+          <t>indrajeet_na</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>pranav_vijayanand18</t>
+          <t>seanbooher_</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>benton_horwath</t>
+          <t>jentemperley</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>courtney.s_2008.7</t>
+          <t>yashdatti__</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>cdanel77</t>
+          <t>hannah.romie</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>duong_minh_giang</t>
+          <t>ozanborowiak</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>stankeryan4</t>
+          <t>matthew_h2023</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>astnchen</t>
+          <t>ariel5davis</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>avery._.lee</t>
+          <t>_aggie_mun</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>elise_minye</t>
+          <t>christian.dowdy</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>eli.karpman</t>
+          <t>notbillychen</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>kosherbigmac</t>
+          <t>wilson_gorman21</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>tessarobertsonn</t>
+          <t>simone.chakravartyy</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>brayden_hurst_</t>
+          <t>ash_scott018</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>brian_schmidt38</t>
+          <t>aneeshraparla</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ethan_redden</t>
+          <t>saranya.namala</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t.c.re</t>
+          <t>nacmerek</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>purdue_iwrhc</t>
+          <t>felicitynicole0112</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>niklas.nowak</t>
+          <t>lindaxu04</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,507 +1748,507 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>nitya_jhaveri</t>
+          <t>nicktodd___</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>emilynovotny_18</t>
+          <t>magicianminusmagic</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>christian.dowdy</t>
+          <t>glebfisun</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>drewchandler3246</t>
+          <t>matthew.calvo</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>braydensnedigar</t>
+          <t>raghavi.m</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>mikeymclaughlin12</t>
+          <t>_jakejohns</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>chihwen800628</t>
+          <t>evangeline_niccum_</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sarthak.tandon</t>
+          <t>aunaunyau</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>bryan.y.o.o</t>
+          <t>gmoff04</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>liv_sedd</t>
+          <t>eli.karpman</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>garciabryanne</t>
+          <t>e.mckeever28</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>avni3059</t>
+          <t>alec.oz</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>adam.elsolh</t>
+          <t>izzy.hearnn</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>sumy.basu.8024</t>
+          <t>miles.osterweis</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>arya.buddha</t>
+          <t>bill_wudka</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>summerknite</t>
+          <t>aguzmoya</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>maria.molinaaaa</t>
+          <t>avantiikaaa</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>purduesao</t>
+          <t>o_sandefur</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>vihaan_chadha</t>
+          <t>_aahan219</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sarah.ann.shaw</t>
+          <t>ashi4618</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>prabruv</t>
+          <t>hallee_no</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>jack_aburger</t>
+          <t>psathis05</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ggpdf_0127</t>
+          <t>luvforsvm</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>matthew_h2023</t>
+          <t>shaunaksarlashkar</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>belle_anderson14</t>
+          <t>kacy22_11</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>grantdunnuck</t>
+          <t>_gunhopark_</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>robxmc</t>
+          <t>jmurrell15</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>_.shlok.s_</t>
+          <t>_s.o.l.c.y_</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>connorfitz17</t>
+          <t>madhav_gudipati</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>beckmoreau</t>
+          <t>ishan._.m</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>jakezegger</t>
+          <t>grant_hoagland</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>living.legend.rs</t>
+          <t>jalberring</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>leynayost</t>
+          <t>ava.egnaczyk</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>netra.shahh</t>
+          <t>today.is.uday</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>andrewfox_uuid</t>
+          <t>onioncrusader</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>jennaajoycee</t>
+          <t>taylorkk8</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>pienka_04</t>
+          <t>purduerecwellness</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>rekig07</t>
+          <t>zachary_felisan</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>cecilia.hadid</t>
+          <t>klebby_</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>charliegraser1</t>
+          <t>patricio_gzz05</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>m.j.deganus</t>
+          <t>olianaozbaki</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>gmoff04</t>
+          <t>lionel_loo</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>anthonygilrod</t>
+          <t>jackgaebele</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ellestonee</t>
+          <t>ejdehaan04</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>lucas7.rod</t>
+          <t>danduffy428</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>kavni.s</t>
+          <t>ivorchu</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>xander_.bryan</t>
+          <t>arnerm</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>bryson.a.jones</t>
+          <t>jthompson1902</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>theoreiten</t>
+          <t>sophiam_1359</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ehayden_05</t>
+          <t>ame1845ss</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>thearbormontessori</t>
+          <t>mygracelessheart18</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lauren.mcclellan_</t>
+          <t>devenpawarr</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>boarse._</t>
+          <t>pre_taylor96</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>aeshamathur</t>
+          <t>nishad_0611</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>davidliansi</t>
+          <t>gracantrell076</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>kereon_william</t>
+          <t>jackson_jones04</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>dayvvvee</t>
+          <t>dozierkamryn</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>legit.laskey</t>
+          <t>aditya_munot</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>henriquepredeus</t>
+          <t>cooper.smitson</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>jack_scheleski16</t>
+          <t>ryan.duffy19</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>luvbrynn_</t>
+          <t>duncan10857</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>nihatalele</t>
+          <t>aprilmightyy</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>alexa.a05_</t>
+          <t>braden_whitney</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>artemyurovskiy</t>
+          <t>jillmary01</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>reese.casler</t>
+          <t>suchi.p11</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>andrewhabig</t>
+          <t>w.thompson05</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>reganhenry_</t>
+          <t>eacarp22</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>kaosi.ogbuefi</t>
+          <t>qb_miller</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>tejomaymarathe</t>
+          <t>justinkeopanya</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>kyle.de.aragon</t>
+          <t>beanshriner</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>pstokell</t>
+          <t>nitya_jhaveri</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>mgsanj</t>
+          <t>aditya.moturi</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>nerbulus</t>
+          <t>keanir_147</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>owesling</t>
+          <t>katismith_</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>orcatortugs</t>
+          <t>notjinon</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>nic_tsc</t>
+          <t>rajastar779</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>aprilmightyy</t>
+          <t>rakhicow</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>a.chittari</t>
+          <t>kcanderson99</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>james_asadow</t>
+          <t>nityaverma</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>halfor_hu</t>
+          <t>liv_sedd</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>kaarner</t>
+          <t>ephramchun</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ava_ballenger</t>
+          <t>drish_palesha</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>justanotherrishi</t>
+          <t>sylv_lima</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>_diegoeke</t>
+          <t>anvitha.mandhadi</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>m_cioccia19</t>
+          <t>phoebe_smock</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ohwright10</t>
+          <t>a_zhujy</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>patrick.n.adams</t>
+          <t>xlauren.b</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>jason1schneider</t>
+          <t>tej.g36</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>tarynstebbingss</t>
+          <t>sophiaahynes</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>niya.bh</t>
+          <t>alex_w004</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>garrett.jacobus</t>
+          <t>shresthi1917</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ashtonnhartman</t>
+          <t>jishy_fishyy</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>_hannah.nguyen</t>
+          <t>7.zoe.7</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>lil_jim010</t>
+          <t>jzjason41305</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>lsch1114</t>
+          <t>victo.rr.eyes</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>e.mckeever28</t>
+          <t>arajagopalan23</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>mylesfierer</t>
+          <t>abombbray</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>jihwimin_</t>
+          <t>kendall.williams3</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>rakhicow</t>
+          <t>_.kolkwitzia._</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>cassidycuppy</t>
+          <t>brycerouse21</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>jzbz28</t>
+          <t>brahm_deconing</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>coleeberry</t>
+          <t>jasminel.04</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>bellapetersonnn</t>
+          <t>gavinomarios</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>anish_8d</t>
+          <t>yourluv_celest</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>johnchiang1</t>
+          <t>arjunaneja04</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>arjunaneja04</t>
+          <t>vgupta0822</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>mario__roman</t>
+          <t>shane.bradley</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>tpmoffitt</t>
+          <t>hlee1210</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>hnry_chn</t>
+          <t>kentgerads</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>notjinon</t>
+          <t>rishicollins_</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>nysha_rajput</t>
+          <t>kendallnowakk</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>emmelinelockhart</t>
+          <t>valerie__2023</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>maddox.cluke</t>
+          <t>robertrogers457</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>shikhar5053</t>
+          <t>88mesh</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>steviejearley</t>
+          <t>ben_slutzky</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>weigandscott</t>
+          <t>alex.thews</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>tartarus737</t>
+          <t>kennadrake33</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ad4m_ah</t>
+          <t>evelynbeall19</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>utsavluthra</t>
+          <t>anish.asthi</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ce_wilson3</t>
+          <t>_conor.obrien</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>aliicetang</t>
+          <t>kaelin_cd</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>benny.blmr</t>
+          <t>kamamo12</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>gaby_ilieva</t>
+          <t>savannah_hoo23</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>jack_heit</t>
+          <t>mikeymclaughlin12</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ryan_tuley</t>
+          <t>miss_kyyy</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>pierce6737</t>
+          <t>cgoehl18</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>courtneyphillips2007</t>
+          <t>owentsay</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>braden_whitney</t>
+          <t>_.viviannguyen</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>dylankistler04</t>
+          <t>nenge.fn</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>gwc.purdue</t>
+          <t>bengineering05</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>mollykoers</t>
+          <t>taelynrussell</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>annalanding3</t>
+          <t>tristan.kitchel</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>lizstephens32018</t>
+          <t>aaryaveersomani</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>samburnitz</t>
+          <t>sophialenceski_</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>damla_uzunn</t>
+          <t>divyamanvikar</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>jacobcr.5</t>
+          <t>dominic_demania</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>thirarayne</t>
+          <t>southbysea_purdue</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>gracecwilliamss</t>
+          <t>rishidr1</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>lizashenkerrr</t>
+          <t>keshav__narayanan</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>mcstaxx11</t>
+          <t>not_sahej</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>jayden.sanders18</t>
+          <t>tobey.uhm</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>henryconstantino1</t>
+          <t>ryan.cross12</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>armagan_ek</t>
+          <t>charlottesiembieda</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>_michaelcrothers_</t>
+          <t>jackie_hee.e</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>dianaathenea.19</t>
+          <t>prathik_iyengar</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>pedro_garciafs</t>
+          <t>mmmm_nashos</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>kylie.cummings2</t>
+          <t>carrigan.dianne</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>erika.sprenger</t>
+          <t>ijack1204</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>0shreyagupta0</t>
+          <t>bretongitahigicheru2024</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>avi.f9</t>
+          <t>connorben82895</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>jose_gito</t>
+          <t>daniel.kflynn</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>evehenry._</t>
+          <t>jsun_n1120</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>loosecorn05</t>
+          <t>lysollllllll</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>rodrigojdangond</t>
+          <t>whiteman.kylie</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>sam.singh.222</t>
+          <t>danny.moose</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ostermanmatt</t>
+          <t>yuihalvor</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>tyler_moore_17__</t>
+          <t>mileswdoyle</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>miha_roper</t>
+          <t>ay3lenn</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>izakmock</t>
+          <t>shivam.p25</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>codywaling_2.0</t>
+          <t>samuel_widjanarko</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>w_fazio1</t>
+          <t>izzykistler19</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>mehak.k.v</t>
+          <t>ryanwans</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>vasser_eric</t>
+          <t>mimiooi88</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>lilpierr</t>
+          <t>zahinkbr</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>krys.nicoleee</t>
+          <t>nicholas.poplavskyy</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>graceohara27</t>
+          <t>aust1ntin</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>sreekar.g</t>
+          <t>goodkidishi</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>daniel.huck</t>
+          <t>_lauren_hopkins</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>megan_raab05</t>
+          <t>lwx11117</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>max_c_klug</t>
+          <t>maggie.hanlon4</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>albrtkang</t>
+          <t>rengifo4043</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>jackkelly_12</t>
+          <t>amogha_tejas</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ava.pfeiffer</t>
+          <t>lexi.rowe20</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>manasisawesome</t>
+          <t>aakash.natarajan</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>sofiasriver</t>
+          <t>jenna_g_23</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>hargunsinghtikku</t>
+          <t>alexadetweiler</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>jjermanomiller</t>
+          <t>pstokell</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>alllisonn.b</t>
+          <t>lalitha.chandolu</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ashlyn_stallings1026</t>
+          <t>alexdelatorre04</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>d_marrero14</t>
+          <t>shayen345</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>badwal.arjun</t>
+          <t>purdue_pirhos</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>evan_cahoon</t>
+          <t>aadi_biyani</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>takaflaka360</t>
+          <t>gschneider05</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>beanshriner</t>
+          <t>sumy.basu.8024</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>carys_2209</t>
+          <t>hannah_wene</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ajchapman14</t>
+          <t>diana_he3</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>shaunaksarlashkar</t>
+          <t>iankelleyisme</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>m.asontan</t>
+          <t>myka_elizabeth</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>keenank152</t>
+          <t>ileemaaa</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>elisenklein</t>
+          <t>cabahrisunil</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>tumminellok</t>
+          <t>janadziki</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>arleigh_bise_727</t>
+          <t>minjae5078</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>evelynbeall19</t>
+          <t>rosalie_huff23</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>mwbender52</t>
+          <t>cheyennej_04</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>smischell</t>
+          <t>dimpimathur</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>willdowton22</t>
+          <t>watts_brooks</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>mrigas_iyer</t>
+          <t>sanketh23</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>_gen.eric</t>
+          <t>nicole_houze</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>jarjar_hasty</t>
+          <t>aeojacksonoutlets</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>madelinehowardd_</t>
+          <t>keiralavelle_</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>meerzinta_10</t>
+          <t>phoebeschuetz</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>grace.smith26</t>
+          <t>waz4</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>myahyax</t>
+          <t>toyns19</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>eacarp22</t>
+          <t>nerbulus</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>miraruane</t>
+          <t>sunny_padileti</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>matthew.calvo</t>
+          <t>joshserrano734</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>silas_bowman</t>
+          <t>imfry7</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>mzards</t>
+          <t>wanizoave_vanundefin145</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>maggie_whyman2</t>
+          <t>evamason246</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>_.viviannguyen</t>
+          <t>shreytrivedi18</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>fazllkg</t>
+          <t>kyclon</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ryancuma1</t>
+          <t>pkoldenhoven</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>sophia_mancini03</t>
+          <t>miapeper</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>makennawatson14</t>
+          <t>beth_thomas3</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>elisabeth.vahovius</t>
+          <t>gunjan.banerjee</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>nichy_frey</t>
+          <t>deschooner</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ongshudutta</t>
+          <t>kelsie_carav</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>aramia_gutierrez</t>
+          <t>khushie05</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ben_harris640</t>
+          <t>sean_dorsey04</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>piano_fahey</t>
+          <t>loper.zach</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>vivianxdenson</t>
+          <t>kendagbem23</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ashrey4a1</t>
+          <t>aadit.k.1</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>aarav_kumar_24</t>
+          <t>josh_cchapman</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>armaan_2511</t>
+          <t>achintiii</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>shresthi1917</t>
+          <t>sraavani14</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>lilyrascher</t>
+          <t>svlsendur</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>addisonz23</t>
+          <t>_dpatex</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>rishabhsuresh24</t>
+          <t>abivillarias123</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>tyler.3692</t>
+          <t>jessicasame_</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ldribordy</t>
+          <t>gehan306</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>alyssakauchak</t>
+          <t>jacksonb.18</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ben_wasson17</t>
+          <t>jonahnavarro</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>charlie.versic</t>
+          <t>andrew_achkar</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>aryandhillon36</t>
+          <t>fronkeh.oreos</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>graysons88</t>
+          <t>riyamiglani10</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>vivang29</t>
+          <t>nehalmehta12</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>mayankhothur</t>
+          <t>gabby.roberts17</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>thelaundrychute</t>
+          <t>p.shelv04</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ethanrios_</t>
+          <t>connor_carrier123</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>payton.perchinski</t>
+          <t>matthewkrugh</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>timothymanogura</t>
+          <t>hargunsinghtikku</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>eli_lyandres</t>
+          <t>marshallliberman</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>matteo_wahab</t>
+          <t>john_y_27</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>markbliss23</t>
+          <t>obatts.711</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>laneyskyess</t>
+          <t>matt.hendricks</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>dhiru.priv</t>
+          <t>ejdg08</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>madhav0545</t>
+          <t>maxwellj20059</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>settingsettingsettingsetting</t>
+          <t>wadewahlin_8</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>evan.lucero</t>
+          <t>no_its_not_blitz</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>nashwaelhaggan</t>
+          <t>purdue.sammy</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>d_welch_03</t>
+          <t>ilkadelice</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>mad.newby</t>
+          <t>_ashlyn_smith</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>abel.t23</t>
+          <t>braxton_malott</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>josemanuelestrada1025</t>
+          <t>arushi.34519</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>dr_fried.man</t>
+          <t>evan_seng</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>arav_102</t>
+          <t>toosadity_.kam</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>shukuala</t>
+          <t>oceanoh3</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>maddiecat927</t>
+          <t>ben_difilippo2</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>elle_vanderlaan</t>
+          <t>sadia.amir.k</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>evanclane</t>
+          <t>hehet.sam</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>jrfidacaro</t>
+          <t>kirahknobel</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>myamarie54</t>
+          <t>savmmm</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>qdtroemner</t>
+          <t>kurtonal_</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>daniellemaynard16</t>
+          <t>aarav_uppi</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>indrajeet_na</t>
+          <t>aarav_kumar_24</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>darya_p05</t>
+          <t>z.spammmzzzz</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>phil.wisniewski</t>
+          <t>_griff_shea2</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,10 +4418,810 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>reagan.bethardthethird</t>
+          <t>artemyurovskiy</t>
         </is>
       </c>
       <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>fuck.sae.illinois</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>samldenny</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>michelleqiu_</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>andrew_berry43</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>nathanaelaou</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>mia.ortlieb</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>aloehr.8</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>anjali.berryman</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>eylulustaoglu</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>tan_sharat</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ethan_redden</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>consul_gaurav</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>umar_yasser04</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>kelly_rtw</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>moeando_</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>varan.d.s</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>joanapaesb</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>eyes_and_a_pen</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>t_vanshi07</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>florence99965</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>jayden.kkim</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>flashton04</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>joncolumbie</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>bode_stevens23</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>asrith132</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>nataliegirolami</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>emmaa.sheridan</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>spencer.isbell</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>j.patrick23</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>tyler.3692</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>manav.bokinala</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>aslylii.lylauga1d16d</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>ava_valerie_</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>eddie_teddy_04</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>stephen_blaes</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>a_bandi1</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>rishisripathi15</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>samstiegler</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>atulyamani16</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>cfirrek.04</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>its_ayn_ngmtb24</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ijustwantedtobe1ofthestrokes</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>louiepalmer19</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>bobby.frassinelli</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>fizztulane</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>connorfitz17</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>addisonz23</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>eleanorkoo</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>itsyax</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>tiago.silva2071</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>avamoseley_</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>_joshr.3</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>gabby.birg</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>bitter_badtz</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>nivvkk</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>_aalim_cambrelen_</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>layladoreski</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>gjanish_87</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>champagnenathan2</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>ushi3__</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>loudin_rodriguezz</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>margotrechin</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>caasinotcasey</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>asad_engr_07</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>bellaa_pear</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>peter.mon_</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>tj.allan13</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>nateburger35</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>glocalishna</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>natekumar1</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>crxzosdk</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>gabe_e_r</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>bellahilaski</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>musun29</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>gicherubretongitahi</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>collinsmith2023</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>xanderrbeckk</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>albrtkang</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>isaac.hallman</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>william.p123</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
         <v>0</v>
       </c>
     </row>
